--- a/nba2k_editor/Offsets/Staff.xlsx
+++ b/nba2k_editor/Offsets/Staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Vitals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Attributes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Style" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Coaching" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Staff Vitals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Staff Attributes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Staff Style" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Staff Coaching" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,16 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,47 +425,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Normalized Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -486,7 +469,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Staff Vitals - ARM_SCALE</t>
+          <t>Face ID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,36 +479,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STAFFVITALSARMSCALE</t>
+          <t>FACEID</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Staff Vitals - ARM_SCALE</t>
+          <t>0xFD (type=bit, length=14, startBit=3)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+          <t>0xFE (type=bit, length=14, startBit=0)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>0xFE (type=bit, length=14, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0x112 (type=Integer)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODYLENGTH</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,36 +517,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STAFFVITALSBODYLENGTH</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Staff Vitals - BODYLENGTH</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>HEIGHT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0x0 (type=Integer)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODY_SHAPE</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,36 +543,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STAFFVITALSBODYSHAPE</t>
+          <t>LASTNAME</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODY_SHAPE</t>
+          <t>0x58 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
+          <t>0x58 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>0x58 (type=string, length=320, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0x78 (type=WString, length=40)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Staff Vitals - CURRENT_TEAM</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -613,36 +581,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STAFFVITALSCURRENTTEAM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Staff Vitals - CURRENT_TEAM</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x18 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0x18 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0x18 (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>POSITION</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0x16A (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Staff Vitals - EYE_COLOR</t>
+          <t>Salary</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -652,36 +607,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STAFFVITALSEYECOLOR</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Staff Vitals - EYE_COLOR</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>SALARY</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0x10D (type=Binary, length=24, startBit=0)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Staff Vitals - FACEID</t>
+          <t>Staff Vitals - ARM_SCALE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -691,36 +633,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STAFFVITALSFACEID</t>
+          <t>STAFFVITALSARMSCALE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Staff Vitals - FACEID</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0xFD (type=bit, length=14, startBit=3)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0xFE (type=bit, length=14, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0xFE (type=bit, length=14, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Staff Vitals - FIRSTNAME</t>
+          <t>Staff Vitals - BODYLENGTH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -730,36 +667,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STAFFVITALSFIRSTNAME</t>
+          <t>STAFFVITALSBODYLENGTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Staff Vitals - FIRSTNAME</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x30 (type=string, length=320, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0x30 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0x30 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Staff Vitals - GENDER</t>
+          <t>Staff Vitals - BODY_SHAPE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -769,36 +701,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAFFVITALSGENDER</t>
+          <t>STAFFVITALSBODYSHAPE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Staff Vitals - GENDER</t>
+          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
-        </is>
-      </c>
+          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAIR_LENGTH</t>
+          <t>Staff Vitals - CURRENT_TEAM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -808,28 +735,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STAFFVITALSHAIRLENGTH</t>
+          <t>STAFFVITALSCURRENTTEAM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAIR_LENGTH</t>
+          <t>0x18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=28)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>0x18 (type=combo, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0x18 (type=combo, length=8, startBit=0)</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAND_SCALE</t>
+          <t>Staff Vitals - EYE_COLOR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -839,36 +769,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAFFVITALSHANDSCALE</t>
+          <t>STAFFVITALSEYECOLOR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAND_SCALE</t>
+          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
+          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
-        </is>
-      </c>
+          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staff Vitals - HEIGHT_CM</t>
+          <t>Staff Vitals - FIRSTNAME</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -878,36 +803,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STAFFVITALSHEIGHT</t>
+          <t>FIRSTNAME</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Staff Vitals - HEIGHT_CM</t>
+          <t>0x30 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0)</t>
+          <t>0x30 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0x0 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>0x30 (type=string, length=320, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0x50 (type=WString, length=40)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Staff Vitals - LASTNAME</t>
+          <t>Staff Vitals - GENDER</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -917,36 +841,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STAFFVITALSLASTNAME</t>
+          <t>STAFFVITALSGENDER</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Staff Vitals - LASTNAME</t>
+          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x58 (type=string, length=320, startBit=0)</t>
+          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x58 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0x58 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Staff Vitals - LOWER_SCALE</t>
+          <t>Staff Vitals - HAIR_LENGTH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -956,36 +875,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STAFFVITALSLOWERSCALE</t>
+          <t>STAFFVITALSHAIRLENGTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Staff Vitals - LOWER_SCALE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=28)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Staff Vitals - NECK_HEAD_SCALE</t>
+          <t>Staff Vitals - HAND_SCALE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -995,36 +901,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAFFVITALSNECKHEADSCALE</t>
+          <t>STAFFVITALSHANDSCALE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Staff Vitals - NECK_HEAD_SCALE</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Staff Vitals - PERSONALITY</t>
+          <t>Staff Vitals - HEIGHT_CM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1034,36 +935,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STAFFVITALSPERSONALITY</t>
+          <t>STAFFVITALSHEIGHT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Staff Vitals - PERSONALITY</t>
+          <t>0x0 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x13F (type=combo, length=2, startBit=6)</t>
+          <t>0x0 (type=number, length=16, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x13F (type=combo, length=2, startBit=6)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0x10B (type=combo, length=2, startBit=5)</t>
-        </is>
-      </c>
+          <t>0x0 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Staff Vitals - POSITION</t>
+          <t>Staff Vitals - LOWER_SCALE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1073,36 +969,31 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STAFFVITALSPOSITION</t>
+          <t>STAFFVITALSLOWERSCALE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Staff Vitals - POSITION</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x10E (type=combo, length=3, startBit=2)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x10E (type=combo, length=3, startBit=2)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0x10E (type=combo, length=3, startBit=2)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Staff Vitals - SALARY</t>
+          <t>Staff Vitals - NECK_HEAD_SCALE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1112,36 +1003,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>STAFFVITALSSALARY</t>
+          <t>STAFFVITALSNECKHEADSCALE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Staff Vitals - SALARY</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0xF8 (type=bit, length=24, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0xF8 (type=bit, length=24, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0xF8 (type=bit, length=24, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Staff Vitals - SHOULDERWIDTH</t>
+          <t>Staff Vitals - PERSONALITY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1151,36 +1037,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STAFFVITALSSHOULDERWIDTH</t>
+          <t>STAFFVITALSPERSONALITY</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Staff Vitals - SHOULDERWIDTH</t>
+          <t>0x13F (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0x13F (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
-        </is>
-      </c>
+          <t>0x10B (type=combo, length=2, startBit=5)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINCOLOR</t>
+          <t>Staff Vitals - POSITION</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1190,36 +1071,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>STAFFVITALSSKINCOLOR</t>
+          <t>STAFFVITALSPOSITION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINCOLOR</t>
+          <t>0x10E (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
+          <t>0x10E (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
+          <t>0x10E (type=combo, length=3, startBit=2)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINTYPE</t>
+          <t>Staff Vitals - SALARY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1229,28 +1105,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STAFFVITALSSKINTYPE</t>
+          <t>STAFFVITALSSALARY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINTYPE</t>
+          <t>0xF8 (type=bit, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0x343 (type=combo, length=2, startBit=6)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>0xF8 (type=bit, length=24, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0xF8 (type=bit, length=24, startBit=0)</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
+          <t>Staff Vitals - SHOULDERWIDTH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1260,36 +1139,31 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STAFFVITALSUNIQUEPHOTOID</t>
+          <t>STAFFVITALSSHOULDERWIDTH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0xD0 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0xD8 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0xD8 (type=number, length=16, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Staff Vitals - WINGSPAN_CM</t>
+          <t>Staff Vitals - SKINCOLOR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1299,36 +1173,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STAFFVITALSWINGSPAN</t>
+          <t>STAFFVITALSSKINCOLOR</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Staff Vitals - WINGSPAN_CM</t>
+          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
-        </is>
-      </c>
+          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
+          <t>Staff Vitals - SKINTYPE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1338,70 +1207,162 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STAFFVITALSYEARSINLEAGUE</t>
+          <t>STAFFVITALSSKINTYPE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x110 (type=bit, length=7, startBit=7)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0x110 (type=bit, length=7, startBit=7)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0x110 (type=bit, length=7, startBit=7)</t>
-        </is>
-      </c>
+          <t>0x343 (type=combo, length=2, startBit=6)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Staff Vitals</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UNIQUEPHOTOID</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0xD0 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0xD8 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0xD8 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0x108 (type=Integer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Staff Vitals - WINGSPAN_CM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Staff Vitals</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>STAFFVITALSWINGSPAN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Staff Vitals</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>STAFFVITALSYEARSINLEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x110 (type=bit, length=7, startBit=7)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x110 (type=bit, length=7, startBit=7)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0x110 (type=bit, length=7, startBit=7)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Staff Vitals - YEARS_LEFT</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Staff Vitals</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>STAFFVITALSYEARSLEFT</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Staff Vitals - YEARS_LEFT</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>YEARSLEFT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>0x112 (type=bit, length=4, startBit=0)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0x112 (type=bit, length=4, startBit=0)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>0x112 (type=bit, length=4, startBit=0)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0x125 (type=Binary, length=4, startBit=4)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1414,7 +1375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,47 +1384,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Normalized Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -1472,7 +1428,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Staff Attributes - BUSINESS</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1482,36 +1438,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESBUSINESS</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Staff Attributes - BUSINESS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x103 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0x103 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0x103 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>ANALYTICS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0x157 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Staff Attributes - CONTRACTS</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1521,36 +1464,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESCONTRACTS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Staff Attributes - CONTRACTS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>BUSINESS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0x154 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Staff Attributes - DEFENSE</t>
+          <t>Charisma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1560,36 +1490,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESDEFENSE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Staff Attributes - DEFENSE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>CHARISMA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0x156 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_BUSINESS</t>
+          <t>Current Team</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1599,36 +1516,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXBUSINESS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_BUSINESS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x107 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0x107 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0x107 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>CURRENTTEAM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0x18 (type=Integer)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_CONTRACTS</t>
+          <t>Defensive Coaching</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1638,36 +1542,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXCONTRACTS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_CONTRACTS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>DEFENSECOACHING</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0x153 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_DEFENSE</t>
+          <t>Offensive Coaching</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1677,36 +1568,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXDEFENSE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_DEFENSE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>OFFENSIVECOACHING</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0x152 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_OFFENSE</t>
+          <t>Potential</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1716,36 +1594,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXOFFENSE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_OFFENSE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0x104 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>POTENTIAL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0x119 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_SCOUTING</t>
+          <t>Sports Medicine</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1755,36 +1620,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXSCOUTING</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_SCOUTING</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>SPORTSMEDICINE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0x155 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_TRADING</t>
+          <t>Staff Attributes - BUSINESS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1794,36 +1646,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXTRADING</t>
+          <t>STAFFATTRIBUTESBUSINESS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_TRADING</t>
+          <t>0x103 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x106 (type=combo, length=4, startBit=4)</t>
+          <t>0x103 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x106 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
+          <t>0x103 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_TRAINING</t>
+          <t>Staff Attributes - CONTRACTS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1833,36 +1680,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXTRAINING</t>
+          <t>STAFFATTRIBUTESCONTRACTS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_TRAINING</t>
+          <t>0x102 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x105 (type=combo, length=4, startBit=0)</t>
+          <t>0x102 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x105 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x102 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staff Attributes - OFFENSE</t>
+          <t>Staff Attributes - DEFENSE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1872,36 +1714,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESOFFENSE</t>
+          <t>STAFFATTRIBUTESDEFENSE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Staff Attributes - OFFENSE</t>
+          <t>0x100 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x100 (type=combo, length=4, startBit=0)</t>
+          <t>0x100 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x100 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x100 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Staff Attributes - POTENTIAL</t>
+          <t>Staff Attributes - MAX_BUSINESS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1911,36 +1748,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESPOTENTIAL</t>
+          <t>STAFFATTRIBUTESMAXBUSINESS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Staff Attributes - POTENTIAL</t>
+          <t>0x107 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x108 (type=combo, length=4, startBit=4)</t>
+          <t>0x107 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x108 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0x108 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x107 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Staff Attributes - SCOUTING</t>
+          <t>Staff Attributes - MAX_CONTRACTS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1950,36 +1782,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESSCOUTING</t>
+          <t>STAFFATTRIBUTESMAXCONTRACTS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Staff Attributes - SCOUTING</t>
+          <t>0x106 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x101 (type=combo, length=4, startBit=4)</t>
+          <t>0x106 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x101 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
+          <t>0x106 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Staff Attributes - TRADING</t>
+          <t>Staff Attributes - MAX_DEFENSE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1989,70 +1816,332 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESTRADING</t>
+          <t>STAFFATTRIBUTESMAXDEFENSE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Staff Attributes - TRADING</t>
+          <t>0x104 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x102 (type=combo, length=4, startBit=4)</t>
+          <t>0x104 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x102 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
+          <t>0x104 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Staff Attributes - MAX_OFFENSE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESMAXOFFENSE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Staff Attributes - MAX_SCOUTING</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESMAXSCOUTING</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x105 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x105 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0x105 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Staff Attributes - MAX_TRADING</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESMAXTRADING</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x106 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x106 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0x106 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Staff Attributes - MAX_TRAINING</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESMAXTRAINING</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x105 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x105 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0x105 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Staff Attributes - OFFENSE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESOFFENSE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x100 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x100 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0x100 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Staff Attributes - POTENTIAL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESPOTENTIAL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x108 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x108 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0x108 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Staff Attributes - SCOUTING</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESSCOUTING</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x101 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x101 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0x101 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Staff Attributes - TRADING</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Staff Attributes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>STAFFATTRIBUTESTRADING</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x102 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x102 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0x102 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Staff Attributes - TRAINING</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Staff Attributes</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>STAFFATTRIBUTESTRAINING</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Staff Attributes - TRAINING</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0x101 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0x101 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0x101 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2065,7 +2154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,47 +2163,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Normalized Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -2123,7 +2207,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Staff Style - ACTIVE_SYSTEM</t>
+          <t>Balanced Proficiency</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2133,36 +2217,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>STAFFSTYLEACTIVESYSTEM</t>
+          <t>BALANCEDPROFICIENCY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Staff Style - ACTIVE_SYSTEM</t>
+          <t>0xEC (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=4)</t>
+          <t>0xEC (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0x10B (type=combo, length=3, startBit=1)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>0xEC (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0x158 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Staff Style - BALANCED_PROFICIENCY</t>
+          <t>Defense Proficiency</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2172,36 +2255,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STAFFSTYLEBALANCEDPROFICIENCY</t>
+          <t>DEFENSEPROFICIENCY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Staff Style - BALANCED_PROFICIENCY</t>
+          <t>0xF3 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0xEC (type=slider, length=8, startBit=0)</t>
+          <t>0xF3 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0xEC (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0xEC (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>0xF3 (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0x15F (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Staff Style - DEFENSE_PROFICIENCY</t>
+          <t>Perimeter Centric Proficiency</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2211,36 +2293,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STAFFSTYLEDEFENSEPROFICIENCY</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Staff Style - DEFENSE_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0xF3 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0xF3 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0xF3 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>PERIMETERCENTRICPROFICIENCY</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0x15B (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
+          <t>Staff Style - ACTIVE_SYSTEM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2250,36 +2319,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STAFFSTYLEGRITGRINDPROFICIENCY</t>
+          <t>STAFFSTYLEACTIVESYSTEM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
+          <t>0x10B (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0xED (type=slider, length=8, startBit=0)</t>
+          <t>0x10B (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0xED (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0xED (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x10B (type=combo, length=3, startBit=1)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Staff Style - GUARDS_VS_FORWARDS</t>
+          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2289,36 +2353,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>STAFFSTYLEGUARDSVSFORWARDS</t>
+          <t>GRITGRINDPROFICIENCY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Staff Style - GUARDS_VS_FORWARDS</t>
+          <t>0xED (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=4)</t>
+          <t>0xED (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0x141 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>0xED (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0x159 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
+          <t>Staff Style - GUARDS_VS_FORWARDS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2328,36 +2391,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STAFFSTYLEINSIDEVSOUTSIDE</t>
+          <t>STAFFSTYLEGUARDSVSFORWARDS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
+          <t>0x141 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x142 (type=combo, length=3, startBit=4)</t>
+          <t>0x141 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0x142 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0x142 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
+          <t>0x141 (type=combo, length=3, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
+          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2367,36 +2425,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STAFFSTYLEOFFENSEVSDEFENSE</t>
+          <t>STAFFSTYLEINSIDEVSOUTSIDE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
+          <t>0x142 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=4)</t>
+          <t>0x142 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0x140 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
+          <t>0x142 (type=combo, length=3, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
+          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2406,36 +2459,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAFFSTYLEPACESPACEPROFICIENCY</t>
+          <t>STAFFSTYLEOFFENSEVSDEFENSE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
+          <t>0x140 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0xEE (type=slider, length=8, startBit=0)</t>
+          <t>0x140 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0xEE (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0xEE (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x140 (type=combo, length=3, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
+          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2445,36 +2493,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STAFFSTYLEPERIMETERCENTERICPROFICIENCY</t>
+          <t>PACESPACEPROFICIENCY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
+          <t>0xEE (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0xEF (type=slider, length=8, startBit=0)</t>
+          <t>0xEE (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0xEF (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0xEF (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>0xEE (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0x15A (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
+          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2484,36 +2531,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAFFSTYLEPOSTCENTRICPROFICIENCY</t>
+          <t>STAFFSTYLEPERIMETERCENTERICPROFICIENCY</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
+          <t>0xEF (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0xF0 (type=slider, length=8, startBit=0)</t>
+          <t>0xEF (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0xF0 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0xF0 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>0xEF (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staff Style - PREFERRED_SYSTEM</t>
+          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2523,36 +2565,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STAFFSTYLEPREFERREDSYSTEM</t>
+          <t>POSTCENTRICPROFICIENCY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Staff Style - PREFERRED_SYSTEM</t>
+          <t>0xF0 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x10A (type=combo, length=3, startBit=0)</t>
+          <t>0xF0 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x10A (type=combo, length=3, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0x109 (type=combo, length=3, startBit=4)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>0xF0 (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0x15C (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Staff Style - SEVEN_SECONDS_PROFICIENCY</t>
+          <t>Staff Style - PREFERRED_SYSTEM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2562,36 +2603,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STAFFSTYLE7SECONDSPROFICIENCY</t>
+          <t>STAFFSTYLEPREFERREDSYSTEM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Staff Style - SEVEN_SECONDS_PROFICIENCY</t>
+          <t>0x10A (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0xF2 (type=slider, length=8, startBit=0)</t>
+          <t>0x10A (type=combo, length=3, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0xF2 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0xF2 (type=slider, length=8, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x109 (type=combo, length=3, startBit=4)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Staff Style - STYLE_N#1</t>
+          <t>Staff Style - SEVEN_SECONDS_PROFICIENCY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2601,36 +2637,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STAFFSTYLESTYLEN1</t>
+          <t>7SECONDSPROFICIENCY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Staff Style - STYLE_N#1</t>
+          <t>0xF2 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x114 (type=combo, length=4, startBit=0)</t>
+          <t>0xF2 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x114 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0x114 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>0xF2 (type=slider, length=8, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0x15E (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Staff Style - STYLE_N#2</t>
+          <t>Staff Style - STYLE_N#1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2640,36 +2675,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAFFSTYLESTYLEN2</t>
+          <t>STAFFSTYLESTYLEN1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Staff Style - STYLE_N#2</t>
+          <t>0x114 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x115 (type=combo, length=4, startBit=0)</t>
+          <t>0x114 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x115 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0x115 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x114 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Staff Style - STYLE_N#3</t>
+          <t>Staff Style - STYLE_N#2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2679,36 +2709,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STAFFSTYLESTYLEN3POINT</t>
+          <t>STAFFSTYLESTYLEN2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Staff Style - STYLE_N#3</t>
+          <t>0x115 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x116 (type=combo, length=4, startBit=0)</t>
+          <t>0x115 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x116 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0x116 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x115 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Staff Style - TRIANGLE_PROFICIENCY</t>
+          <t>Staff Style - STYLE_N#3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2718,31 +2743,64 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STAFFSTYLETRIANGLEPROFICIENCY</t>
+          <t>STAFFSTYLESTYLEN3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Staff Style - TRIANGLE_PROFICIENCY</t>
+          <t>0x116 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0x116 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0x116 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Triangle Proficiency</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Staff Style</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TRIANGLEPROFICIENCY</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>0xF1 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0xF1 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>0xF1 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0x15D (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2755,7 +2813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2764,47 +2822,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Normalized Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Variant Names</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -2826,24 +2879,19 @@
           <t>STAFFCOACHINGBENCHUTILIZATION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Staff Coaching - BENCH_UTILIZATION</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x8A (type=slider, length=64, startBit=0)</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>0x8A (type=slider, length=64, startBit=0)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0x8A (type=slider, length=64, startBit=0)</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2861,24 +2909,19 @@
           <t>STAFFCOACHINGPLAYBOOK</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Staff Coaching - PLAYBOOK</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x6D (type=combo, length=8, startBit=0)</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0x6D (type=combo, length=8, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>0x6C (type=combo, length=8, startBit=4)</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nba2k_editor/Offsets/Staff.xlsx
+++ b/nba2k_editor/Offsets/Staff.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,35 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LASTNAME</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x58 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x58 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0x58 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
+          <t>POSITION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0x78 (type=WString, length=40)</t>
+          <t>0x16A (type=Integer, length=1)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Staff Vitals - ARM_SCALE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -581,23 +569,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>POSITION</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>STAFFVITALSARMSCALE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0x16A (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>Staff Vitals - BODYLENGTH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,23 +603,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SALARY</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>STAFFVITALSBODYLENGTH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0x10D (type=Binary, length=24, startBit=0)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Staff Vitals - ARM_SCALE</t>
+          <t>Staff Vitals - BODY_SHAPE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -633,22 +637,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STAFFVITALSARMSCALE</t>
+          <t>STAFFVITALSBODYSHAPE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=12)</t>
+          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -657,7 +661,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODYLENGTH</t>
+          <t>Staff Vitals - CURRENT_TEAM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -667,22 +671,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STAFFVITALSBODYLENGTH</t>
+          <t>STAFFVITALSCURRENTTEAM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+          <t>0x18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+          <t>0x18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=4)</t>
+          <t>0x18 (type=combo, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -691,7 +695,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODY_SHAPE</t>
+          <t>Staff Vitals - EYE_COLOR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -701,22 +705,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAFFVITALSBODYSHAPE</t>
+          <t>STAFFVITALSEYECOLOR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
+          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
+          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=0, requiresDereference=True, dereferenceAddress=60)</t>
+          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,7 +729,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Staff Vitals - CURRENT_TEAM</t>
+          <t>Staff Vitals - FIRSTNAME</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -735,31 +739,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STAFFVITALSCURRENTTEAM</t>
+          <t>FIRSTNAME</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0x18 (type=combo, length=8, startBit=0)</t>
+          <t>0x30 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x18 (type=combo, length=8, startBit=0)</t>
+          <t>0x30 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x18 (type=combo, length=8, startBit=0)</t>
+          <t>0x30 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0x50 (type=WString, length=40)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staff Vitals - EYE_COLOR</t>
+          <t>Staff Vitals - GENDER</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -769,22 +777,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAFFVITALSEYECOLOR</t>
+          <t>STAFFVITALSGENDER</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=3, startBit=5, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -793,7 +801,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staff Vitals - FIRSTNAME</t>
+          <t>Staff Vitals - HAIR_LENGTH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -803,35 +811,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FIRSTNAME</t>
+          <t>STAFFVITALSHAIRLENGTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0x30 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0x30 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0x30 (type=string, length=320, startBit=0)</t>
-        </is>
-      </c>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=28)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0x50 (type=WString, length=40)</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Staff Vitals - GENDER</t>
+          <t>Staff Vitals - HAND_SCALE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,22 +837,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STAFFVITALSGENDER</t>
+          <t>STAFFVITALSHANDSCALE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=2, startBit=0, requiresDereference=True, dereferenceAddress=34)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -865,7 +861,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAIR_LENGTH</t>
+          <t>Staff Vitals - HEIGHT_CM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -875,23 +871,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STAFFVITALSHAIRLENGTH</t>
+          <t>STAFFVITALSHEIGHT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=28)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>0x0 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x0 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0x0 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAND_SCALE</t>
+          <t>Staff Vitals - LASTNAME</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -901,31 +905,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAFFVITALSHANDSCALE</t>
+          <t>LASTNAME</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
+          <t>0x58 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
+          <t>0x58 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=24)</t>
+          <t>0x58 (type=string, length=320, startBit=0)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0x78 (type=WString, length=40)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Staff Vitals - HEIGHT_CM</t>
+          <t>Staff Vitals - LOWER_SCALE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -935,22 +943,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STAFFVITALSHEIGHT</t>
+          <t>STAFFVITALSLOWERSCALE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -959,7 +967,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Staff Vitals - LOWER_SCALE</t>
+          <t>Staff Vitals - NECK_HEAD_SCALE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,22 +977,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STAFFVITALSLOWERSCALE</t>
+          <t>STAFFVITALSNECKHEADSCALE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=20)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -993,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Staff Vitals - NECK_HEAD_SCALE</t>
+          <t>Staff Vitals - PERSONALITY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1003,22 +1011,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>STAFFVITALSNECKHEADSCALE</t>
+          <t>STAFFVITALSPERSONALITY</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
+          <t>0x13F (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
+          <t>0x13F (type=combo, length=2, startBit=6)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=16)</t>
+          <t>0x10B (type=combo, length=2, startBit=5)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1027,7 +1035,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Staff Vitals - PERSONALITY</t>
+          <t>Staff Vitals - POSITION</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1037,22 +1045,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STAFFVITALSPERSONALITY</t>
+          <t>STAFFVITALSPOSITION</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0x13F (type=combo, length=2, startBit=6)</t>
+          <t>0x10E (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0x13F (type=combo, length=2, startBit=6)</t>
+          <t>0x10E (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=2, startBit=5)</t>
+          <t>0x10E (type=combo, length=3, startBit=2)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1061,7 +1069,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Staff Vitals - POSITION</t>
+          <t>Staff Vitals - SALARY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1071,22 +1079,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>STAFFVITALSPOSITION</t>
+          <t>STAFFVITALSSALARY</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0x10E (type=combo, length=3, startBit=2)</t>
+          <t>0xF8 (type=bit, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0x10E (type=combo, length=3, startBit=2)</t>
+          <t>0xF8 (type=bit, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0x10E (type=combo, length=3, startBit=2)</t>
+          <t>0xF8 (type=bit, length=24, startBit=0)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1095,7 +1103,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Staff Vitals - SALARY</t>
+          <t>Staff Vitals - SHOULDERWIDTH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1105,22 +1113,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STAFFVITALSSALARY</t>
+          <t>STAFFVITALSSHOULDERWIDTH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0xF8 (type=bit, length=24, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0xF8 (type=bit, length=24, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0xF8 (type=bit, length=24, startBit=0)</t>
+          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1129,7 +1137,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Staff Vitals - SHOULDERWIDTH</t>
+          <t>Staff Vitals - SKINCOLOR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1139,22 +1147,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STAFFVITALSSHOULDERWIDTH</t>
+          <t>STAFFVITALSSKINCOLOR</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0x0 (type=float, length=32, startBit=0, requiresDereference=True, dereferenceAddress=8)</t>
+          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1163,7 +1171,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINCOLOR</t>
+          <t>Staff Vitals - SKINTYPE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1173,31 +1181,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STAFFVITALSSKINCOLOR</t>
+          <t>STAFFVITALSSKINTYPE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0x0 (type=combo, length=4, startBit=6, requiresDereference=True, dereferenceAddress=38)</t>
-        </is>
-      </c>
+          <t>0x343 (type=combo, length=2, startBit=6)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINTYPE</t>
+          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1207,23 +1207,35 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STAFFVITALSSKINTYPE</t>
+          <t>UNIQUEPHOTOID</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0x343 (type=combo, length=2, startBit=6)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+          <t>0xD0 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0xD8 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0xD8 (type=number, length=16, startBit=0)</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0x108 (type=Integer)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
+          <t>Staff Vitals - WINGSPAN_CM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1233,35 +1245,31 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UNIQUEPHOTOID</t>
+          <t>STAFFVITALSWINGSPAN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0xD0 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0xD8 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0xD8 (type=number, length=16, startBit=0)</t>
+          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0x108 (type=Integer)</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Staff Vitals - WINGSPAN_CM</t>
+          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1271,22 +1279,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STAFFVITALSWINGSPAN</t>
+          <t>STAFFVITALSYEARSINLEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+          <t>0x110 (type=bit, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+          <t>0x110 (type=bit, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0x0 (type=number, length=16, startBit=0, requiresDereference=True, dereferenceAddress=2)</t>
+          <t>0x110 (type=bit, length=7, startBit=7)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1295,7 +1303,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
+          <t>Staff Vitals - YEARS_LEFT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1305,64 +1313,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STAFFVITALSYEARSINLEAGUE</t>
+          <t>STAFFVITALSYEARSLEFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0x110 (type=bit, length=7, startBit=7)</t>
+          <t>0x112 (type=bit, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0x110 (type=bit, length=7, startBit=7)</t>
+          <t>0x112 (type=bit, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0x110 (type=bit, length=7, startBit=7)</t>
+          <t>0x112 (type=bit, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Staff Vitals - YEARS_LEFT</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Staff Vitals</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>YEARSLEFT</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0x112 (type=bit, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0x112 (type=bit, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0x112 (type=bit, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0x125 (type=Binary, length=4, startBit=4)</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1375,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,7 +1398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Analytics</t>
+          <t>Current Team</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1438,7 +1408,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANALYTICS</t>
+          <t>CURRENTTEAM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1447,14 +1417,14 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0x157 (type=Integer, length=1)</t>
+          <t>0x18 (type=Integer)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Staff Attributes - BUSINESS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1464,23 +1434,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUSINESS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>STAFFATTRIBUTESBUSINESS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x103 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0x103 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0x103 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0x154 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charisma</t>
+          <t>Staff Attributes - CONTRACTS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1490,23 +1468,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHARISMA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>STAFFATTRIBUTESCONTRACTS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x102 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x102 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0x102 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0x156 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Current Team</t>
+          <t>Staff Attributes - DEFENSE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1516,23 +1502,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CURRENTTEAM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>STAFFATTRIBUTESDEFENSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x100 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x100 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0x100 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0x18 (type=Integer)</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Defensive Coaching</t>
+          <t>Staff Attributes - MAX_BUSINESS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1542,23 +1536,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEFENSECOACHING</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>STAFFATTRIBUTESMAXBUSINESS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x107 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x107 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0x107 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0x153 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Offensive Coaching</t>
+          <t>Staff Attributes - MAX_CONTRACTS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1568,23 +1570,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OFFENSIVECOACHING</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>STAFFATTRIBUTESMAXCONTRACTS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x106 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0x106 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0x106 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0x152 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Staff Attributes - MAX_DEFENSE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1594,23 +1604,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POTENTIAL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>STAFFATTRIBUTESMAXDEFENSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=4)</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0x119 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sports Medicine</t>
+          <t>Staff Attributes - MAX_OFFENSE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1620,23 +1638,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SPORTSMEDICINE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>STAFFATTRIBUTESMAXOFFENSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0x104 (type=combo, length=4, startBit=0)</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0x155 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Staff Attributes - BUSINESS</t>
+          <t>Staff Attributes - MAX_SCOUTING</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1646,22 +1672,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESBUSINESS</t>
+          <t>STAFFATTRIBUTESMAXSCOUTING</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0x103 (type=combo, length=4, startBit=0)</t>
+          <t>0x105 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0x103 (type=combo, length=4, startBit=0)</t>
+          <t>0x105 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0x103 (type=combo, length=4, startBit=0)</t>
+          <t>0x105 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -1670,7 +1696,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staff Attributes - CONTRACTS</t>
+          <t>Staff Attributes - MAX_TRADING</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1680,22 +1706,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESCONTRACTS</t>
+          <t>STAFFATTRIBUTESMAXTRADING</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0x102 (type=combo, length=4, startBit=0)</t>
+          <t>0x106 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0x102 (type=combo, length=4, startBit=0)</t>
+          <t>0x106 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x102 (type=combo, length=4, startBit=0)</t>
+          <t>0x106 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -1704,7 +1730,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staff Attributes - DEFENSE</t>
+          <t>Staff Attributes - MAX_TRAINING</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1714,22 +1740,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESDEFENSE</t>
+          <t>STAFFATTRIBUTESMAXTRAINING</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0x100 (type=combo, length=4, startBit=4)</t>
+          <t>0x105 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0x100 (type=combo, length=4, startBit=4)</t>
+          <t>0x105 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0x100 (type=combo, length=4, startBit=4)</t>
+          <t>0x105 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1738,7 +1764,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_BUSINESS</t>
+          <t>Staff Attributes - OFFENSE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1748,22 +1774,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXBUSINESS</t>
+          <t>STAFFATTRIBUTESOFFENSE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0x107 (type=combo, length=4, startBit=0)</t>
+          <t>0x100 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0x107 (type=combo, length=4, startBit=0)</t>
+          <t>0x100 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0x107 (type=combo, length=4, startBit=0)</t>
+          <t>0x100 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1772,7 +1798,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_CONTRACTS</t>
+          <t>Staff Attributes - POTENTIAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1782,22 +1808,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXCONTRACTS</t>
+          <t>STAFFATTRIBUTESPOTENTIAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0x106 (type=combo, length=4, startBit=0)</t>
+          <t>0x108 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0x106 (type=combo, length=4, startBit=0)</t>
+          <t>0x108 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x106 (type=combo, length=4, startBit=0)</t>
+          <t>0x108 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1806,7 +1832,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_DEFENSE</t>
+          <t>Staff Attributes - SCOUTING</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1816,22 +1842,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXDEFENSE</t>
+          <t>STAFFATTRIBUTESSCOUTING</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0x104 (type=combo, length=4, startBit=4)</t>
+          <t>0x101 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x104 (type=combo, length=4, startBit=4)</t>
+          <t>0x101 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0x104 (type=combo, length=4, startBit=4)</t>
+          <t>0x101 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1840,7 +1866,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_OFFENSE</t>
+          <t>Staff Attributes - TRADING</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1850,22 +1876,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXOFFENSE</t>
+          <t>STAFFATTRIBUTESTRADING</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0x104 (type=combo, length=4, startBit=0)</t>
+          <t>0x102 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0x104 (type=combo, length=4, startBit=0)</t>
+          <t>0x102 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0x104 (type=combo, length=4, startBit=0)</t>
+          <t>0x102 (type=combo, length=4, startBit=4)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1874,7 +1900,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_SCOUTING</t>
+          <t>Staff Attributes - TRAINING</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1884,264 +1910,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>STAFFATTRIBUTESMAXSCOUTING</t>
+          <t>STAFFATTRIBUTESTRAINING</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0x105 (type=combo, length=4, startBit=4)</t>
+          <t>0x101 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0x105 (type=combo, length=4, startBit=4)</t>
+          <t>0x101 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0x105 (type=combo, length=4, startBit=4)</t>
+          <t>0x101 (type=combo, length=4, startBit=0)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_TRADING</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESMAXTRADING</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0x106 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_TRAINING</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESMAXTRAINING</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0x105 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Staff Attributes - OFFENSE</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESOFFENSE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0x100 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Staff Attributes - POTENTIAL</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESPOTENTIAL</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x108 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x108 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0x108 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Staff Attributes - SCOUTING</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESSCOUTING</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Staff Attributes - TRADING</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESTRADING</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0x102 (type=combo, length=4, startBit=4)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Staff Attributes - TRAINING</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Staff Attributes</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>STAFFATTRIBUTESTRAINING</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0x101 (type=combo, length=4, startBit=0)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2207,7 +1995,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balanced Proficiency</t>
+          <t>Grit &amp; Grind Proficiency</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2217,35 +2005,35 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BALANCEDPROFICIENCY</t>
+          <t>GRITGRINDPROFICIENCY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0xEC (type=slider, length=8, startBit=0)</t>
+          <t>0xED (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0xEC (type=slider, length=8, startBit=0)</t>
+          <t>0xED (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0xEC (type=slider, length=8, startBit=0)</t>
+          <t>0xED (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0x158 (type=Integer, length=1)</t>
+          <t>0x159 (type=Integer, length=1)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Defense Proficiency</t>
+          <t>Pace &amp;Space Proficiency</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2255,28 +2043,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEFENSEPROFICIENCY</t>
+          <t>PACESPACEPROFICIENCY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0xF3 (type=slider, length=8, startBit=0)</t>
+          <t>0xEE (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0xF3 (type=slider, length=8, startBit=0)</t>
+          <t>0xEE (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0xF3 (type=slider, length=8, startBit=0)</t>
+          <t>0xEE (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0x15F (type=Integer, length=1)</t>
+          <t>0x15A (type=Integer, length=1)</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2097,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Staff Style - ACTIVE_SYSTEM</t>
+          <t>Post Centric Proficiency</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2319,31 +2107,35 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STAFFSTYLEACTIVESYSTEM</t>
+          <t>POSTCENTRICPROFICIENCY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=4)</t>
+          <t>0xF0 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=4)</t>
+          <t>0xF0 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0x10B (type=combo, length=3, startBit=1)</t>
+          <t>0xF0 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0x15C (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
+          <t>Staff Style - ACTIVE_SYSTEM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2353,35 +2145,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GRITGRINDPROFICIENCY</t>
+          <t>STAFFSTYLEACTIVESYSTEM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0xED (type=slider, length=8, startBit=0)</t>
+          <t>0x10B (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0xED (type=slider, length=8, startBit=0)</t>
+          <t>0x10B (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0xED (type=slider, length=8, startBit=0)</t>
+          <t>0x10B (type=combo, length=3, startBit=1)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0x159 (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Staff Style - GUARDS_VS_FORWARDS</t>
+          <t>Staff Style - BALANCED_PROFICIENCY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2391,31 +2179,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>STAFFSTYLEGUARDSVSFORWARDS</t>
+          <t>BALANCEDPROFICIENCY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=4)</t>
+          <t>0xEC (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=4)</t>
+          <t>0xEC (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0x141 (type=combo, length=3, startBit=4)</t>
+          <t>0xEC (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0x158 (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
+          <t>Staff Style - DEFENSE_PROFICIENCY</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2425,31 +2217,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>STAFFSTYLEINSIDEVSOUTSIDE</t>
+          <t>DEFENSEPROFICIENCY</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0x142 (type=combo, length=3, startBit=4)</t>
+          <t>0xF3 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x142 (type=combo, length=3, startBit=4)</t>
+          <t>0xF3 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0x142 (type=combo, length=3, startBit=4)</t>
+          <t>0xF3 (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0x15F (type=Integer, length=1)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
+          <t>Staff Style - GUARDS_VS_FORWARDS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2459,22 +2255,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>STAFFSTYLEOFFENSEVSDEFENSE</t>
+          <t>STAFFSTYLEGUARDSVSFORWARDS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=4)</t>
+          <t>0x141 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=4)</t>
+          <t>0x141 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0x140 (type=combo, length=3, startBit=4)</t>
+          <t>0x141 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -2483,7 +2279,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
+          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2493,35 +2289,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PACESPACEPROFICIENCY</t>
+          <t>STAFFSTYLEINSIDEVSOUTSIDE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0xEE (type=slider, length=8, startBit=0)</t>
+          <t>0x142 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0xEE (type=slider, length=8, startBit=0)</t>
+          <t>0x142 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0xEE (type=slider, length=8, startBit=0)</t>
+          <t>0x142 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0x15A (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
+          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2531,22 +2323,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STAFFSTYLEPERIMETERCENTERICPROFICIENCY</t>
+          <t>STAFFSTYLEOFFENSEVSDEFENSE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0xEF (type=slider, length=8, startBit=0)</t>
+          <t>0x140 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0xEF (type=slider, length=8, startBit=0)</t>
+          <t>0x140 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0xEF (type=slider, length=8, startBit=0)</t>
+          <t>0x140 (type=combo, length=3, startBit=4)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2555,7 +2347,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
+          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2565,30 +2357,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>POSTCENTRICPROFICIENCY</t>
+          <t>STAFFSTYLEPERIMETERCENTERICPROFICIENCY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0xF0 (type=slider, length=8, startBit=0)</t>
+          <t>0xEF (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0xF0 (type=slider, length=8, startBit=0)</t>
+          <t>0xEF (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0xF0 (type=slider, length=8, startBit=0)</t>
+          <t>0xEF (type=slider, length=8, startBit=0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0x15C (type=Integer, length=1)</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
